--- a/OBPAS_UAT Points.xlsx
+++ b/OBPAS_UAT Points.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27813"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://apcdeloitte-my.sharepoint.com/personal/arnag_deloitte_com/Documents/Documents/Goa IDC/UAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{7DEEB5F9-06F5-481A-A9A1-BCC455E7335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9CA86F7-CC80-4F51-BD75-9D0A2FF423E3}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="8_{7DEEB5F9-06F5-481A-A9A1-BCC455E7335C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8047735C-70AD-4968-A3EF-7498082A1466}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{BD06BBFD-4635-4688-A277-FF02535A03C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>SI</t>
   </si>
@@ -44,138 +44,208 @@
     <t>Module</t>
   </si>
   <si>
+    <t>One icon to be incorporated in scrutiny tool</t>
+  </si>
+  <si>
+    <t>"Plan Shared with Lessee" instead of "Shared Scrutiny Plan" and Shared Scrutiny Plan will merge in Dashboard only</t>
+  </si>
+  <si>
+    <t>In case of Plot Development/ Hill Cutting - Lessee will apply from the portal for TC and this will directly go to MS for approval</t>
+  </si>
+  <si>
+    <t>Remarks/Comments</t>
+  </si>
+  <si>
     <t>UAT Points</t>
   </si>
   <si>
-    <t>Remarks/Comments</t>
+    <t>Need further discussion</t>
+  </si>
+  <si>
+    <t>Table format to updated in TC application (while selecting DCR)</t>
+  </si>
+  <si>
+    <t>Two popups are coming after submission of TC application</t>
+  </si>
+  <si>
+    <t>Output of "Shared Scrutiny Plan" will come to Architect's Dashboard</t>
+  </si>
+  <si>
+    <t>Certificate from Architecture/Engineer' will 'Certificate from Architect/Engineer...'</t>
+  </si>
+  <si>
+    <t>Lessee Share name should change to Additional Details</t>
+  </si>
+  <si>
+    <t>After Plan share success popup should come and toast modal should not come</t>
   </si>
   <si>
     <t>Arcchitect</t>
   </si>
   <si>
-    <t>OBPAS Dashboard redesign for Architect
+    <t>Technical Clearance</t>
+  </si>
+  <si>
+    <t>Payment date should show current system date</t>
+  </si>
+  <si>
+    <t>For Part Occupancy, error message should show "For Part Occupancy minimum 30% is required"</t>
+  </si>
+  <si>
+    <t>Noting is not required for FM (Site) for schedule appointment</t>
+  </si>
+  <si>
+    <t>Action button should be center aligned in Schedule Inspection</t>
+  </si>
+  <si>
+    <t>Occupancy Certificate</t>
+  </si>
+  <si>
+    <t>After OC application, the status should show "Under Field Inspection"</t>
+  </si>
+  <si>
+    <t>We need to redesign entire 'Field Inspection' Window</t>
+  </si>
+  <si>
+    <t>Search by Application No' to be changed to 'Search by DCR no'</t>
+  </si>
+  <si>
+    <t>Lessee details should be removed from menu as Lessee only applying for TC</t>
+  </si>
+  <si>
+    <t>"Save &amp; Next" button will be only "Next" button</t>
+  </si>
+  <si>
+    <t>Digitally Signed (in Self Declaration screen)template pending from Lessee's login
+And this page should have Save&amp;Next button</t>
+  </si>
+  <si>
+    <t>One error page is coming, after payment success popup</t>
+  </si>
+  <si>
+    <t>Under Payment Details tab, notes should not show</t>
+  </si>
+  <si>
+    <t>After Application submission, message should "Application Submitted Successfully" instead of Application Created Successfully.</t>
+  </si>
+  <si>
+    <t>Questionnaire to be updated in scrutiny report only Questionnaire upload button will be removed</t>
+  </si>
+  <si>
+    <t>Remove affidavit &amp; Power of Attorney buttons</t>
+  </si>
+  <si>
+    <t>Redesign the Digital Signature button/functionality</t>
+  </si>
+  <si>
+    <t>After TC &amp; CL, notification should go to all Engineering Section like FM (Site), FM(HQ) Area Manager, DGM (E), GM(E) including MD</t>
+  </si>
+  <si>
+    <t>In GME login Construction License Fee should show, Similarly MS login only TC fee should show</t>
+  </si>
+  <si>
+    <t>Payment done section should be removed from Employee's login under Payment Details</t>
+  </si>
+  <si>
+    <t>Remove Obtained Occupancy</t>
+  </si>
+  <si>
+    <t>Remove NOC details from FM (Site) login</t>
+  </si>
+  <si>
+    <t>New design required for Field Inspection &amp; Schedule Inspection screens - Nitish</t>
+  </si>
+  <si>
+    <t>Date: 26-Jun-2024</t>
+  </si>
+  <si>
+    <t>Instead of Architect it should be Architect/Engineer in Login page</t>
+  </si>
+  <si>
+    <t>Architect Dashboard to be redesigned, and populate details as how many drawing shared, how many drawing have scrutinized etc.</t>
+  </si>
+  <si>
+    <t>Increase Drawing upload size to 30MB</t>
+  </si>
+  <si>
+    <t>We may need to integrate any viewer through which user can view .dxf files, so that comparison will be easier at Goa-IDC office end</t>
+  </si>
+  <si>
+    <t>At present system, download TC order and CL order is not working</t>
+  </si>
+  <si>
+    <t>FM (Site) role to be incorporated in Technical Clearance Application workflow, the workflow would be as below,
+Lessee -&gt; FM (Site) -&gt; MS (Approver)</t>
+  </si>
+  <si>
+    <t>Any other remarks will become below,
+Any other remarks (including special condition)</t>
+  </si>
+  <si>
+    <t>Approved Plan Number will be Construction License number and the should be auto populate and along with date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Separate invoice and separate fee structure to be incorporated in Technical Clearance Payment Details </t>
+  </si>
+  <si>
+    <t>We can discuss more with MD sir regarding this</t>
+  </si>
+  <si>
+    <t>Under Payment Details tab, amounts should show comma separated and Total Payable should show correctly</t>
+  </si>
+  <si>
+    <t>Automatic PDF conversion of drawing is required, this should auto populate when Architect shares the drawing with Lessee</t>
+  </si>
+  <si>
+    <t>One additional upload option is required under Lessee's login in Completion Order Application with below naming convention,
+Other Document [Scanned copy of previous approved Construction Licenses (if Applicable)]</t>
+  </si>
+  <si>
+    <t>Filed Inspection Report</t>
+  </si>
+  <si>
+    <t>After FM (site) Schedule's appointment with lessee, a notification will go to Architect as well. So that Lessee can bring Architect for Physical Inspection.
+Same should be applicable for Technical Clearance as well (a notification should go to Architect when Lessee applies for TC from the portal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In FM's Report,
+Occupancy Achieved (i) &lt;- questions will come when FM hovers on (i) icon
+For all questions this should be followed across </t>
+  </si>
+  <si>
+    <t>OBPAS Dashboard needs to be redesign for Architect User
 1. Design Shared
 2. Design Approved
 3. Designed Pending</t>
   </si>
   <si>
-    <t>Need further discussion</t>
-  </si>
-  <si>
-    <t>Output of "Shared Scrutiny Plan" will come to Architect's Dashboard</t>
-  </si>
-  <si>
-    <t>"Plan Shared with Lessee" instead of "Shared Scrutiny Plan" and Shared Scrutiny Plan will merge in Dashboard only</t>
-  </si>
-  <si>
-    <t>One icon to be incorporated in scrutiny tool</t>
+    <t>Completion Order</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ETA</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
   <si>
     <t>Service Type will be changed as below,
 &gt;&gt; New Construction
 &gt;&gt; Addition/Alternation
+&gt;&gt; Revision
 &gt;&gt; Plot Development/ Hill Cutting</t>
-  </si>
-  <si>
-    <t>In case of Plot Development/ Hill Cutting - Lessee will apply from the portal for TC and this will directly go to MS for approval</t>
-  </si>
-  <si>
-    <t>Questionnaire to be updated in scrutiny report only Questionnaire upload button will be removed</t>
-  </si>
-  <si>
-    <t>Certificate from Architecture/Engineer' will 'Certificate from Architect/Engineer...'</t>
-  </si>
-  <si>
-    <t>Lessee Share name should change to Additional Details</t>
-  </si>
-  <si>
-    <t>After Plan share success popup should come and toast modal should not come</t>
-  </si>
-  <si>
-    <t>Technical Clearance</t>
-  </si>
-  <si>
-    <t>Table format to updated in TC application (while selecting DCR)</t>
-  </si>
-  <si>
-    <t>Remove affidavit &amp; Power of Attorney buttons</t>
-  </si>
-  <si>
-    <t>Two popups are coming after submission of TC application</t>
-  </si>
-  <si>
-    <t>Redesign the Digital Signature button/functionality</t>
-  </si>
-  <si>
-    <t>In GME login Construction License Fee should show, Similarly MS login only TC fee should show</t>
-  </si>
-  <si>
-    <t>Payment done section should be removed from Employee's login under Payment Details</t>
-  </si>
-  <si>
-    <t>Search by Application No' to be changed to 'Search by DCR no'</t>
-  </si>
-  <si>
-    <t>Lessee details should be removed from menu as Lessee only applying for TC</t>
-  </si>
-  <si>
-    <t>"Save &amp; Next" button will be only "Next" button</t>
-  </si>
-  <si>
-    <t>Digitally Signed (in Self Declaration screen)template pending from Lessee's login
-And this page should have Save&amp;Next button</t>
-  </si>
-  <si>
-    <t>Under Payment Details tab, amounts should show comma seperated and Total Payable should show correctly</t>
-  </si>
-  <si>
-    <t>One error page is coming, after payment success popup</t>
-  </si>
-  <si>
-    <t>Payment date should show current system date</t>
-  </si>
-  <si>
-    <t>Under Payment Details tab, notes should not show</t>
-  </si>
-  <si>
-    <t>After Application submission, message should "Application Submitted Successfully" instead of Application Created Successfully.</t>
-  </si>
-  <si>
-    <t>After TC &amp; CL, notification should go to all Engineering Section like FM (Site), FM(HQ) Area Manager, DGM (E), GM(E) including MD</t>
-  </si>
-  <si>
-    <t>Occupancy Certificate</t>
-  </si>
-  <si>
-    <t>For Part Occupancy, error message should show "For Part Occupancy minimum 30% is required"</t>
-  </si>
-  <si>
-    <t>Noting is not required for FM (Site) for schedule appointment</t>
-  </si>
-  <si>
-    <t>Action button should be center aligned in Schedule Inspection</t>
-  </si>
-  <si>
-    <t>After OC application, the status should show "Under Field Inspection"</t>
-  </si>
-  <si>
-    <t>We need to redesign entire 'Field Inspection' Window</t>
-  </si>
-  <si>
-    <t>Remove Obtained Occupancy</t>
-  </si>
-  <si>
-    <t>Remove NOC details from FM (Site) login</t>
-  </si>
-  <si>
-    <t>New design required for Field Inspection &amp; Schedule Inspection screens - Nitish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +257,28 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,7 +298,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -266,11 +358,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -285,9 +414,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -295,17 +421,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,274 +771,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CD7759-ABA7-428A-94CD-DE59091F0165}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" customWidth="1"/>
-    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="72.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="72">
+    <row r="2" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="20">
+        <v>45477</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="28.9">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="72">
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="20">
+        <v>45478</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="28.9">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="20">
+        <v>45478</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="20">
+        <v>45478</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="28.9">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="28.9">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.15">
+      <c r="E19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -897,647 +1099,827 @@
         <v>26</v>
       </c>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="28.9">
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="28.9">
+      <c r="E24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="28.9">
+      <c r="E25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="28.9">
+      <c r="E26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="E27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="E29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="E30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="E31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="12"/>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6">
-        <v>34</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6">
-        <v>35</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>3</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>4</v>
+      </c>
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>5</v>
+      </c>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>6</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>7</v>
+      </c>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>8</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>9</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>10</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>11</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>12</v>
+      </c>
+      <c r="B47" s="12"/>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>13</v>
+      </c>
+      <c r="B48" s="13"/>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="19">
+        <v>45477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:B10"/>
     <mergeCell ref="B11:B26"/>
-    <mergeCell ref="B27:B38"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="B45:B48"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>